--- a/DarkSkyDB_TableSchema.xlsx
+++ b/DarkSkyDB_TableSchema.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericrivetna/Desktop/Data Analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericrivetna/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9C6036D-A3EE-0A46-9AFB-A8E522C7669A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A14B776-7BB2-634D-A1A3-ADB9C2952168}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11920" yWindow="1240" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="5560" yWindow="1240" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DarkSkyDB_TableSchema" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="98" uniqueCount="55">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="171" uniqueCount="82">
   <si>
     <t>request_id</t>
   </si>
@@ -150,9 +150,6 @@
     <t>curr_time</t>
   </si>
   <si>
-    <t>TIMESTAMP WITHOUT TIME ZONE</t>
-  </si>
-  <si>
     <t>curr_temperature</t>
   </si>
   <si>
@@ -180,9 +177,6 @@
     <t>curr_humidity</t>
   </si>
   <si>
-    <t>All Tables (Primary Key)</t>
-  </si>
-  <si>
     <t>table_header</t>
   </si>
   <si>
@@ -190,12 +184,99 @@
   </si>
   <si>
     <t>data_type</t>
+  </si>
+  <si>
+    <t>Primary Key</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>sr_request_id</t>
+  </si>
+  <si>
+    <t>sr_type_desc</t>
+  </si>
+  <si>
+    <t>sr_method_received_desc</t>
+  </si>
+  <si>
+    <t>sr_status_desc</t>
+  </si>
+  <si>
+    <t>sr_status_date</t>
+  </si>
+  <si>
+    <t>sr_created_date</t>
+  </si>
+  <si>
+    <t>sr_updated_date</t>
+  </si>
+  <si>
+    <t>sr_closed_date</t>
+  </si>
+  <si>
+    <t>sr_location</t>
+  </si>
+  <si>
+    <t>sr_location_street_number</t>
+  </si>
+  <si>
+    <t>sr_location_street_name</t>
+  </si>
+  <si>
+    <t>sr_location_city</t>
+  </si>
+  <si>
+    <t>sr_location_zip_code</t>
+  </si>
+  <si>
+    <t>sr_location_county</t>
+  </si>
+  <si>
+    <t>sr_location_x</t>
+  </si>
+  <si>
+    <t>sr_location_y</t>
+  </si>
+  <si>
+    <t>sr_location_long</t>
+  </si>
+  <si>
+    <t>sr_location_lat</t>
+  </si>
+  <si>
+    <t>sr_location_lat_long</t>
+  </si>
+  <si>
+    <t>sr_location_council_district</t>
+  </si>
+  <si>
+    <t>sr_location_map_page</t>
+  </si>
+  <si>
+    <t>sr_location_map_tile</t>
+  </si>
+  <si>
+    <t>austin_311</t>
+  </si>
+  <si>
+    <t>VARCHAR(255)</t>
+  </si>
+  <si>
+    <t>DATETIME</t>
+  </si>
+  <si>
+    <t>Foreign Key (to darksky_geo)</t>
+  </si>
+  <si>
+    <t>Needs Foreign Key - How to Normalize?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -532,13 +613,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -709,7 +790,7 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1069,18 +1150,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W27"/>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:W51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="101" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="101" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="11" bestFit="1" customWidth="1"/>
@@ -1301,21 +1382,21 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="1" t="s">
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
         <v>53</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B7" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>51</v>
       </c>
       <c r="D7" t="s">
         <v>30</v>
@@ -1384,161 +1465,429 @@
         <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
         <v>43</v>
-      </c>
-      <c r="D15" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" t="s">
         <v>43</v>
       </c>
-      <c r="D16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" t="s">
         <v>43</v>
       </c>
-      <c r="D18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="3" t="s">
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B21" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" t="s">
         <v>43</v>
       </c>
-      <c r="D19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="4" t="s">
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B22" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="C21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B23" s="4" t="s">
-        <v>34</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B23" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="C23" t="s">
         <v>29</v>
       </c>
       <c r="D23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="4" t="s">
-        <v>35</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B24" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="C24" t="s">
         <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B25" s="4" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B25" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="C25" t="s">
         <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B26" s="4" t="s">
-        <v>38</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B26" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="C26" t="s">
         <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="4" t="s">
-        <v>39</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B27" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="C27" t="s">
         <v>29</v>
       </c>
       <c r="D27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B28" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B29" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B30" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B31" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B32" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B33" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B34" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B35" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B36" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B37" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B38" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B39" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B40" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B41" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" t="s">
+        <v>77</v>
+      </c>
+      <c r="D41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B42" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" t="s">
+        <v>77</v>
+      </c>
+      <c r="D42" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B43" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" t="s">
+        <v>77</v>
+      </c>
+      <c r="D43" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B44" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B45" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45" t="s">
+        <v>77</v>
+      </c>
+      <c r="D45" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B46" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" t="s">
+        <v>77</v>
+      </c>
+      <c r="D46" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B47" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" t="s">
+        <v>77</v>
+      </c>
+      <c r="D47" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B48" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48" t="s">
+        <v>77</v>
+      </c>
+      <c r="D48" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B49" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49" t="s">
+        <v>77</v>
+      </c>
+      <c r="D49" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B50" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" t="s">
+        <v>77</v>
+      </c>
+      <c r="D50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B51" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51" t="s">
+        <v>77</v>
+      </c>
+      <c r="D51" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
